--- a/Arbeitszeit.xlsx
+++ b/Arbeitszeit.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t xml:space="preserve">Datum</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">Backend erstellt entities gemacht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assoziationen, Facade</t>
   </si>
 </sst>
 </file>
@@ -154,16 +157,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="67.4858299595142"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="68.0202429149798"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
   </cols>
@@ -209,6 +212,17 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>43388</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Arbeitszeit.xlsx
+++ b/Arbeitszeit.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t xml:space="preserve">Datum</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">Backend erstellt entities gemacht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4h</t>
   </si>
   <si>
     <t xml:space="preserve">Assoziationen, Facade</t>
@@ -160,13 +163,13 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="68.0202429149798"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="68.5546558704453"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
   </cols>
@@ -212,7 +215,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -220,7 +223,7 @@
         <v>43388</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>

--- a/Arbeitszeit.xlsx
+++ b/Arbeitszeit.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t xml:space="preserve">Datum</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t xml:space="preserve">Backend erstellt entities gemacht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4h</t>
   </si>
   <si>
     <t xml:space="preserve">Assoziationen, Facade</t>
@@ -163,13 +160,13 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="68.5546558704453"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="69.0931174089069"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
   </cols>
@@ -215,7 +212,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -223,7 +220,7 @@
         <v>43388</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>

--- a/Arbeitszeit.xlsx
+++ b/Arbeitszeit.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t xml:space="preserve">Datum</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">Assoziationen, Facade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datenbank läuft einwandfrei ManyToMany hat auch geklappt,Entities herum gebastelt sowie bei den Facades,Enpoints erstellt</t>
   </si>
 </sst>
 </file>
@@ -157,16 +160,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="69.0931174089069"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="69.7327935222672"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
   </cols>
@@ -224,6 +227,17 @@
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>43386</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Arbeitszeit.xlsx
+++ b/Arbeitszeit.xlsx
@@ -160,16 +160,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="69.7327935222672"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="70.3765182186235"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
   </cols>
@@ -238,6 +238,11 @@
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>43403</v>
       </c>
     </row>
   </sheetData>

--- a/Arbeitszeit.xlsx
+++ b/Arbeitszeit.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t xml:space="preserve">Datum</t>
   </si>
@@ -50,6 +50,18 @@
   </si>
   <si>
     <t xml:space="preserve">Datenbank läuft einwandfrei ManyToMany hat auch geklappt,Entities herum gebastelt sowie bei den Facades,Enpoints erstellt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alle entitäten fein säuberlich gemacht für rest; alles wird nun in Jsonobject oder JsonArray per response verschickt;komments auch kleinig gehalten;(@namequery,jsonarray&amp;jsonobject,restendpoints,restclient für appontments&amp;participants sichtbar,anderen zweit nicht sichtbar hoffe nur das es geht)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesamt:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18h</t>
   </si>
 </sst>
 </file>
@@ -160,18 +172,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="70.3765182186235"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="145.538461538462"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.6599190283401"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -243,6 +257,22 @@
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>43403</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
